--- a/assets/results/MA_result.xlsx
+++ b/assets/results/MA_result.xlsx
@@ -7,14 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Barnstable County" sheetId="1" r:id="rId1"/>
+    <sheet name="Dukes County" sheetId="2" r:id="rId2"/>
+    <sheet name="Hampden County" sheetId="3" r:id="rId3"/>
+    <sheet name="Nantucket County" sheetId="4" r:id="rId4"/>
+    <sheet name="Berkshire County" sheetId="5" r:id="rId5"/>
+    <sheet name="Bristol County" sheetId="6" r:id="rId6"/>
+    <sheet name="Essex County" sheetId="7" r:id="rId7"/>
+    <sheet name="Franklin County" sheetId="8" r:id="rId8"/>
+    <sheet name="Hampshire County" sheetId="9" r:id="rId9"/>
+    <sheet name="Middlesex County" sheetId="10" r:id="rId10"/>
+    <sheet name="Norfolk County" sheetId="11" r:id="rId11"/>
+    <sheet name="Plymouth County" sheetId="12" r:id="rId12"/>
+    <sheet name="Suffolk County" sheetId="13" r:id="rId13"/>
+    <sheet name="Worcester County" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="82">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +188,91 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Barnstable County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Dukes County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Hampden County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Nantucket County</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Berkshire County</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Bristol County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Essex County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Hampshire County</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Middlesex County</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Norfolk County</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Plymouth County</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Suffolk County</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
     <t>Worcester County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>826655</v>
+        <v>213505</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>625553</v>
+        <v>188560</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>41566</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1768</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>41349</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>97478</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>447020</v>
+        <v>111058</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>49.4</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>69.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>66.3</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>65.7</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.7484848484848484</v>
+        <v>1.142367066895369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3.053030303030303</v>
+        <v>3.811320754716981</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>180134</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -759,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>199.046357615894</v>
+        <v>187.8614718614718</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8540.174463022106</v>
+        <v>1108.273434302088</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>15769.07827374656</v>
+        <v>1105.421926910299</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>61222.78810922918</v>
+        <v>5751.060794044664</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.001122304817988566</v>
+        <v>0.003833833581355462</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -814,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.4145199836275533</v>
+        <v>0.1455847857341035</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>43074</v>
+        <v>38914</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>46565</v>
+        <v>39908</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -847,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>33715</v>
+        <v>31580</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -858,7 +949,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>32545</v>
+        <v>28321</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -869,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>53309</v>
+        <v>38472</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>29956</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>212111</v>
+        <v>74952</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>34.7</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>59.6</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1037,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>15.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -968,7 +1059,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>14.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1092,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>30.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1103,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>9.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1114,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>23.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>4.236111111111111</v>
+        <v>2.153846153846154</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>97.7</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1147,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1158,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>97</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1169,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1089,7 +1180,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>97.8</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1100,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>95.8</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1202,7573 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>0.9251282051282051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1605899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1140148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>84630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>199161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>129313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>929011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>69.40000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9625360230547549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.118155619596541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>509841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>543.4915895710681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>22158.77955941855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>93271.4331947251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>92153.09599740351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001019336897199493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.4112554112554113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>53252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>57153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>37108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>36324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>62778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>33435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>644709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>5.173076923076922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9959225280326198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>703740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>518457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>50508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>79812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>33262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>394476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>67.59999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>72.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.09999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8106508875739645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.227810650887574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>204949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>373.25320056899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>12023.66211604096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>32340.75267085746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>24150.81289802499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001603704119709961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.3349120770776393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>53766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>56642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>39414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>56354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>55538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>270144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.510204081632653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.015228426395939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>518597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>414785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>284782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8582089552238806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.01044776119403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>110095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>131.7989601386482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>7629.153502560192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2534.185191212368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>13691.84168012924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0009926421678486271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1784606883001259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>34786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>38910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>41734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>138366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.846153846153846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.013238289205703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>801162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>359034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>172540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>71425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>183798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>476035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>71.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7357440890125173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.76356050069541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>214753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>404.8578125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>24804.28333176906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>22989.21710382343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>127421.161269297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002306750136091453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.9414602612955907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>41861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>59379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>32615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>31523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>34923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>266193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.273584905660377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.984646878198567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>826655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>625553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>41566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>41349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>97478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>447020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7484848484848484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.053030303030303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>180134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>199.046357615894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>8540.174463022106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>15769.07827374656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>61222.78810922918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001122304817988566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.4145199836275533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>46565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>33715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>32545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>53309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>212111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.236111111111111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.9693877551020408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>17430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>9386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>75.59999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7822706065318817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.329704510108865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14.33793103448276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>89.2987012987013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>655.2727272727273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003799185888738127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1937584803256445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>40723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>10987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.041972717733473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>466647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>289402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>41265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>11681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>119915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>230248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8933764135702746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.87075928917609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>78142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>223.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>6583.132295719844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2460.331530384983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>58721.48745414698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002977572158099477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.7820769366225367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>30492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>36731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>34335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>87433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.157894736842105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.931422722620266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.373626373626374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.85989010989011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1599.274011299435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.137625516834022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>49451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>50711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>49136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.037344398340249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>125927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>110438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>66241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.049261083743842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.231527093596059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>25580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>100.3174603174603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>643.2148579752367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>665.4508243320068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4468.256537421101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003372112628561794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1782161524194908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>34705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>36035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>20717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>32921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>32735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.607142857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.003067484662577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>563301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>451430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>23616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>47071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>300252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6873065015479877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.140866873065016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>106549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>28.16666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>5570.250957632037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3970.769813921434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>29813.29752836435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0002798376941374003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.289556672514557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>33158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>38678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>115519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.0875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.003070624360286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>787038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>546725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>33962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>27109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>168536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>432253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7681818181818182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.254545454545455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>175341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>246.1992551210428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>6790.559739907883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>10250.25015013628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>111135.0522432308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.00135188494254489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.6252467859270116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>42167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>50455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>32847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>24485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>49158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>28439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>222503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>5.181818181818183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9091836734693877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>70529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>63462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>38512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>69.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9217527386541471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.158059467918623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>15104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>200.8139534883721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>405.8706896551724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2323.837811431363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001953261248692013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1466341123125218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>35398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>36185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>19196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>49205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>32354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>20456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.962128966223132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>161361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>134314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>88992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.689763779527559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.913385826771654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>39765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>41.81443298969072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>807.3674339300937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2056.445723053318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4910.517857142857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0011001100110011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1834080843981834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>33287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>20157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>16917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>48952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.893617021276595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9631901840490799</v>
       </c>
     </row>
   </sheetData>
